--- a/Datasets/snow_data.xlsx
+++ b/Datasets/snow_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\활동\대외\동아리\AI PLAYGROUND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71CC9CBB-D4C6-4451-A0E4-1BF5A42171DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA781F9-1511-4C4B-8988-3290E71CE11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{527798A1-6B13-4598-93D0-E3B7279F2095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,63 +38,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>precipitation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>humidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>강수량</t>
+  </si>
+  <si>
+    <t>최고기온</t>
+  </si>
+  <si>
+    <t>최저기온</t>
+  </si>
+  <si>
+    <t>습도</t>
+  </si>
+  <si>
+    <t>계절</t>
+  </si>
+  <si>
+    <t>눈</t>
+  </si>
+  <si>
+    <t>겨울</t>
+  </si>
+  <si>
+    <t>네</t>
+  </si>
+  <si>
+    <t>봄</t>
+  </si>
+  <si>
+    <t>아니요</t>
+  </si>
+  <si>
+    <t>가을</t>
+  </si>
+  <si>
+    <t>여름</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,17 +444,17 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -510,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>45017</v>
       </c>
@@ -533,10 +520,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>45285</v>
       </c>
@@ -556,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>45180</v>
       </c>
@@ -576,13 +563,13 @@
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>45121</v>
       </c>
@@ -599,13 +586,13 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>44961</v>
       </c>
@@ -625,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>45159</v>
       </c>
@@ -645,13 +632,13 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>44987</v>
       </c>
@@ -671,10 +658,10 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>45068</v>
       </c>
@@ -694,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>45230</v>
       </c>
@@ -714,13 +701,13 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>44953</v>
       </c>
@@ -740,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>45217</v>
       </c>
@@ -760,13 +747,13 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>44938</v>
       </c>
@@ -786,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>45183</v>
       </c>
@@ -806,13 +793,13 @@
         <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>45288</v>
       </c>
@@ -832,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
